--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna4-Epha4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna4-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Epha4</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.742511247858204</v>
+        <v>0.828516</v>
       </c>
       <c r="H2">
-        <v>0.742511247858204</v>
+        <v>2.485548</v>
       </c>
       <c r="I2">
-        <v>0.4423832483197635</v>
+        <v>0.4625620436231038</v>
       </c>
       <c r="J2">
-        <v>0.4423832483197635</v>
+        <v>0.4821955800271095</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.36173227849925</v>
+        <v>7.727270999999999</v>
       </c>
       <c r="N2">
-        <v>7.36173227849925</v>
+        <v>23.181813</v>
       </c>
       <c r="O2">
-        <v>0.4506279295385468</v>
+        <v>0.4492515923977304</v>
       </c>
       <c r="P2">
-        <v>0.4506279295385468</v>
+        <v>0.4784711627054499</v>
       </c>
       <c r="Q2">
-        <v>5.466169020506498</v>
+        <v>6.402167659836</v>
       </c>
       <c r="R2">
-        <v>5.466169020506498</v>
+        <v>57.619508938524</v>
       </c>
       <c r="S2">
-        <v>0.1993502472528718</v>
+        <v>0.2078067346804278</v>
       </c>
       <c r="T2">
-        <v>0.1993502472528718</v>
+        <v>0.2307166798269999</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.742511247858204</v>
+        <v>0.828516</v>
       </c>
       <c r="H3">
-        <v>0.742511247858204</v>
+        <v>2.485548</v>
       </c>
       <c r="I3">
-        <v>0.4423832483197635</v>
+        <v>0.4625620436231038</v>
       </c>
       <c r="J3">
-        <v>0.4423832483197635</v>
+        <v>0.4821955800271095</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.97705345708693</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N3">
-        <v>5.97705345708693</v>
+        <v>18.878545</v>
       </c>
       <c r="O3">
-        <v>0.3658686735966679</v>
+        <v>0.3658564756519351</v>
       </c>
       <c r="P3">
-        <v>0.3658686735966679</v>
+        <v>0.3896519817642027</v>
       </c>
       <c r="Q3">
-        <v>4.438029420936808</v>
+        <v>5.21372552974</v>
       </c>
       <c r="R3">
-        <v>4.438029420936808</v>
+        <v>46.92352976766</v>
       </c>
       <c r="S3">
-        <v>0.1618541722841372</v>
+        <v>0.1692313190503054</v>
       </c>
       <c r="T3">
-        <v>0.1618541722841372</v>
+        <v>0.1878884633555024</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +655,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.742511247858204</v>
+        <v>0.828516</v>
       </c>
       <c r="H4">
-        <v>0.742511247858204</v>
+        <v>2.485548</v>
       </c>
       <c r="I4">
-        <v>0.4423832483197635</v>
+        <v>0.4625620436231038</v>
       </c>
       <c r="J4">
-        <v>0.4423832483197635</v>
+        <v>0.4821955800271095</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.99782324033289</v>
+        <v>0.021228</v>
       </c>
       <c r="N4">
-        <v>2.99782324033289</v>
+        <v>0.063684</v>
       </c>
       <c r="O4">
-        <v>0.1835033968647853</v>
+        <v>0.001234163109255392</v>
       </c>
       <c r="P4">
-        <v>0.1835033968647853</v>
+        <v>0.001314433755709007</v>
       </c>
       <c r="Q4">
-        <v>2.225917475037899</v>
+        <v>0.017587737648</v>
       </c>
       <c r="R4">
-        <v>2.225917475037899</v>
+        <v>0.158289638832</v>
       </c>
       <c r="S4">
-        <v>0.08117882878275441</v>
+        <v>0.0005708770099814181</v>
       </c>
       <c r="T4">
-        <v>0.08117882878275441</v>
+        <v>0.0006338141472413165</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7177448866952451</v>
+        <v>0.828516</v>
       </c>
       <c r="H5">
-        <v>0.7177448866952451</v>
+        <v>2.485548</v>
       </c>
       <c r="I5">
-        <v>0.4276276155506522</v>
+        <v>0.4625620436231038</v>
       </c>
       <c r="J5">
-        <v>0.4276276155506522</v>
+        <v>0.4821955800271095</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>7.36173227849925</v>
+        <v>0.007773333333333333</v>
       </c>
       <c r="N5">
-        <v>7.36173227849925</v>
+        <v>0.02332</v>
       </c>
       <c r="O5">
-        <v>0.4506279295385468</v>
+        <v>0.0004519295852621654</v>
       </c>
       <c r="P5">
-        <v>0.4506279295385468</v>
+        <v>0.0004813233336965963</v>
       </c>
       <c r="Q5">
-        <v>5.283845700112173</v>
+        <v>0.00644033104</v>
       </c>
       <c r="R5">
-        <v>5.283845700112173</v>
+        <v>0.05796297936</v>
       </c>
       <c r="S5">
-        <v>0.1927009470090961</v>
+        <v>0.000209045472532609</v>
       </c>
       <c r="T5">
-        <v>0.1927009470090961</v>
+        <v>0.0002320919840724122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7177448866952451</v>
+        <v>0.828516</v>
       </c>
       <c r="H6">
-        <v>0.7177448866952451</v>
+        <v>2.485548</v>
       </c>
       <c r="I6">
-        <v>0.4276276155506522</v>
+        <v>0.4625620436231038</v>
       </c>
       <c r="J6">
-        <v>0.4276276155506522</v>
+        <v>0.4821955800271095</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.97705345708693</v>
+        <v>3.151199</v>
       </c>
       <c r="N6">
-        <v>5.97705345708693</v>
+        <v>6.302398</v>
       </c>
       <c r="O6">
-        <v>0.3658686735966679</v>
+        <v>0.183205839255817</v>
       </c>
       <c r="P6">
-        <v>0.3658686735966679</v>
+        <v>0.1300810984409417</v>
       </c>
       <c r="Q6">
-        <v>4.289999556328281</v>
+        <v>2.610818790684</v>
       </c>
       <c r="R6">
-        <v>4.289999556328281</v>
+        <v>15.664912744104</v>
       </c>
       <c r="S6">
-        <v>0.156455548494823</v>
+        <v>0.08474406740985654</v>
       </c>
       <c r="T6">
-        <v>0.156455548494823</v>
+        <v>0.06272453071329342</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +841,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7177448866952451</v>
+        <v>0.7438396666666667</v>
       </c>
       <c r="H7">
-        <v>0.7177448866952451</v>
+        <v>2.231519</v>
       </c>
       <c r="I7">
-        <v>0.4276276155506522</v>
+        <v>0.4152870872032183</v>
       </c>
       <c r="J7">
-        <v>0.4276276155506522</v>
+        <v>0.4329140288365043</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.99782324033289</v>
+        <v>7.727270999999999</v>
       </c>
       <c r="N7">
-        <v>2.99782324033289</v>
+        <v>23.181813</v>
       </c>
       <c r="O7">
-        <v>0.1835033968647853</v>
+        <v>0.4492515923977304</v>
       </c>
       <c r="P7">
-        <v>0.1835033968647853</v>
+        <v>0.4784711627054499</v>
       </c>
       <c r="Q7">
-        <v>2.151672301965102</v>
+        <v>5.747850684883</v>
       </c>
       <c r="R7">
-        <v>2.151672301965102</v>
+        <v>51.730656163947</v>
       </c>
       <c r="S7">
-        <v>0.07847112004673315</v>
+        <v>0.186568385228261</v>
       </c>
       <c r="T7">
-        <v>0.07847112004673315</v>
+        <v>0.2071368787289029</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +903,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.218178233561462</v>
+        <v>0.7438396666666667</v>
       </c>
       <c r="H8">
-        <v>0.218178233561462</v>
+        <v>2.231519</v>
       </c>
       <c r="I8">
-        <v>0.1299891361295843</v>
+        <v>0.4152870872032183</v>
       </c>
       <c r="J8">
-        <v>0.1299891361295843</v>
+        <v>0.4329140288365043</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.36173227849925</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N8">
-        <v>7.36173227849925</v>
+        <v>18.878545</v>
       </c>
       <c r="O8">
-        <v>0.4506279295385468</v>
+        <v>0.3658564756519351</v>
       </c>
       <c r="P8">
-        <v>0.4506279295385468</v>
+        <v>0.3896519817642027</v>
       </c>
       <c r="Q8">
-        <v>1.606169744475363</v>
+        <v>4.680870206650555</v>
       </c>
       <c r="R8">
-        <v>1.606169744475363</v>
+        <v>42.127831859855</v>
       </c>
       <c r="S8">
-        <v>0.05857673527657889</v>
+        <v>0.1519354701079273</v>
       </c>
       <c r="T8">
-        <v>0.05857673527657889</v>
+        <v>0.1686858092696691</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.218178233561462</v>
+        <v>0.7438396666666667</v>
       </c>
       <c r="H9">
-        <v>0.218178233561462</v>
+        <v>2.231519</v>
       </c>
       <c r="I9">
-        <v>0.1299891361295843</v>
+        <v>0.4152870872032183</v>
       </c>
       <c r="J9">
-        <v>0.1299891361295843</v>
+        <v>0.4329140288365043</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>5.97705345708693</v>
+        <v>0.021228</v>
       </c>
       <c r="N9">
-        <v>5.97705345708693</v>
+        <v>0.063684</v>
       </c>
       <c r="O9">
-        <v>0.3658686735966679</v>
+        <v>0.001234163109255392</v>
       </c>
       <c r="P9">
-        <v>0.3658686735966679</v>
+        <v>0.001314433755709007</v>
       </c>
       <c r="Q9">
-        <v>1.304062965169656</v>
+        <v>0.015790228444</v>
       </c>
       <c r="R9">
-        <v>1.304062965169656</v>
+        <v>0.142112055996</v>
       </c>
       <c r="S9">
-        <v>0.04755895281770772</v>
+        <v>0.0005125320027763391</v>
       </c>
       <c r="T9">
-        <v>0.04755895281770772</v>
+        <v>0.0005690368128226835</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1021,55 +1027,427 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7438396666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.231519</v>
+      </c>
+      <c r="I10">
+        <v>0.4152870872032183</v>
+      </c>
+      <c r="J10">
+        <v>0.4329140288365043</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.02332</v>
+      </c>
+      <c r="O10">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="P10">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="Q10">
+        <v>0.005782113675555556</v>
+      </c>
+      <c r="R10">
+        <v>0.05203902308</v>
+      </c>
+      <c r="S10">
+        <v>0.0001876805210844832</v>
+      </c>
+      <c r="T10">
+        <v>0.0002083716235636106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.218178233561462</v>
-      </c>
-      <c r="H10">
-        <v>0.218178233561462</v>
-      </c>
-      <c r="I10">
-        <v>0.1299891361295843</v>
-      </c>
-      <c r="J10">
-        <v>0.1299891361295843</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.99782324033289</v>
-      </c>
-      <c r="N10">
-        <v>2.99782324033289</v>
-      </c>
-      <c r="O10">
-        <v>0.1835033968647853</v>
-      </c>
-      <c r="P10">
-        <v>0.1835033968647853</v>
-      </c>
-      <c r="Q10">
-        <v>0.6540597791053281</v>
-      </c>
-      <c r="R10">
-        <v>0.6540597791053281</v>
-      </c>
-      <c r="S10">
-        <v>0.02385344803529771</v>
-      </c>
-      <c r="T10">
-        <v>0.02385344803529771</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7438396666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.231519</v>
+      </c>
+      <c r="I11">
+        <v>0.4152870872032183</v>
+      </c>
+      <c r="J11">
+        <v>0.4329140288365043</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.151199</v>
+      </c>
+      <c r="N11">
+        <v>6.302398</v>
+      </c>
+      <c r="O11">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="P11">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="Q11">
+        <v>2.343986813760333</v>
+      </c>
+      <c r="R11">
+        <v>14.063920882562</v>
+      </c>
+      <c r="S11">
+        <v>0.07608301934316926</v>
+      </c>
+      <c r="T11">
+        <v>0.05631393240154599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.21879</v>
+      </c>
+      <c r="H12">
+        <v>0.43758</v>
+      </c>
+      <c r="I12">
+        <v>0.1221508691736778</v>
+      </c>
+      <c r="J12">
+        <v>0.08489039113638626</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.727270999999999</v>
+      </c>
+      <c r="N12">
+        <v>23.181813</v>
+      </c>
+      <c r="O12">
+        <v>0.4492515923977304</v>
+      </c>
+      <c r="P12">
+        <v>0.4784711627054499</v>
+      </c>
+      <c r="Q12">
+        <v>1.69064962209</v>
+      </c>
+      <c r="R12">
+        <v>10.14389773254</v>
+      </c>
+      <c r="S12">
+        <v>0.05487647248904162</v>
+      </c>
+      <c r="T12">
+        <v>0.04061760414954715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.21879</v>
+      </c>
+      <c r="H13">
+        <v>0.43758</v>
+      </c>
+      <c r="I13">
+        <v>0.1221508691736778</v>
+      </c>
+      <c r="J13">
+        <v>0.08489039113638626</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.292848333333333</v>
+      </c>
+      <c r="N13">
+        <v>18.878545</v>
+      </c>
+      <c r="O13">
+        <v>0.3658564756519351</v>
+      </c>
+      <c r="P13">
+        <v>0.3896519817642027</v>
+      </c>
+      <c r="Q13">
+        <v>1.37681228685</v>
+      </c>
+      <c r="R13">
+        <v>8.260873721099999</v>
+      </c>
+      <c r="S13">
+        <v>0.04468968649370238</v>
+      </c>
+      <c r="T13">
+        <v>0.03307770913903121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.21879</v>
+      </c>
+      <c r="H14">
+        <v>0.43758</v>
+      </c>
+      <c r="I14">
+        <v>0.1221508691736778</v>
+      </c>
+      <c r="J14">
+        <v>0.08489039113638626</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.021228</v>
+      </c>
+      <c r="N14">
+        <v>0.063684</v>
+      </c>
+      <c r="O14">
+        <v>0.001234163109255392</v>
+      </c>
+      <c r="P14">
+        <v>0.001314433755709007</v>
+      </c>
+      <c r="Q14">
+        <v>0.00464447412</v>
+      </c>
+      <c r="R14">
+        <v>0.02786684472</v>
+      </c>
+      <c r="S14">
+        <v>0.0001507540964976349</v>
+      </c>
+      <c r="T14">
+        <v>0.0001115827956450068</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.21879</v>
+      </c>
+      <c r="H15">
+        <v>0.43758</v>
+      </c>
+      <c r="I15">
+        <v>0.1221508691736778</v>
+      </c>
+      <c r="J15">
+        <v>0.08489039113638626</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.02332</v>
+      </c>
+      <c r="O15">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="P15">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="Q15">
+        <v>0.0017007276</v>
+      </c>
+      <c r="R15">
+        <v>0.0102043656</v>
+      </c>
+      <c r="S15">
+        <v>5.520359164507326E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.085972606057342E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.21879</v>
+      </c>
+      <c r="H16">
+        <v>0.43758</v>
+      </c>
+      <c r="I16">
+        <v>0.1221508691736778</v>
+      </c>
+      <c r="J16">
+        <v>0.08489039113638626</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.151199</v>
+      </c>
+      <c r="N16">
+        <v>6.302398</v>
+      </c>
+      <c r="O16">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="P16">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="Q16">
+        <v>0.68945082921</v>
+      </c>
+      <c r="R16">
+        <v>2.75780331684</v>
+      </c>
+      <c r="S16">
+        <v>0.02237875250279115</v>
+      </c>
+      <c r="T16">
+        <v>0.01104263532610231</v>
       </c>
     </row>
   </sheetData>
